--- a/data/excel/PlanYourTripAll.xlsx
+++ b/data/excel/PlanYourTripAll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC22800-9FAC-4B43-A907-5E35EEBC050B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30B79FA-70BF-49CC-8A7A-8300D7DB2DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{CF5A2F7A-4B78-411E-A600-51DCCD9C70AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="1" xr2:uid="{CF5A2F7A-4B78-411E-A600-51DCCD9C70AE}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanYourTripAll" sheetId="15" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
   <si>
     <t>Source</t>
   </si>
@@ -140,22 +140,13 @@
   </si>
   <si>
     <t>Xchange@720</t>
-  </si>
-  <si>
-    <t>Xchange@721</t>
-  </si>
-  <si>
-    <t>Xchange@722</t>
-  </si>
-  <si>
-    <t>Xchange@723</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,8 +174,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +198,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -241,6 +245,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -558,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D66FDB5-D227-49D9-A0DE-033D9E8EB139}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,19 +606,19 @@
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -629,7 +635,7 @@
       <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="7">
@@ -667,8 +673,8 @@
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>35</v>
+      <c r="E3" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="F3" s="7">
         <v>733537</v>
@@ -705,8 +711,8 @@
       <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>36</v>
+      <c r="E4" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="F4" s="2">
         <v>733416</v>
@@ -743,8 +749,8 @@
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>37</v>
+      <c r="E5" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="F5" s="2">
         <v>733417</v>
@@ -770,7 +776,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="6">
+  <dataValidations disablePrompts="1" count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5" xr:uid="{AA4E6D4A-1035-441A-9AF8-6B10E01FD8D1}">
       <formula1>"InPolicy,OutPolicy,Null"</formula1>
     </dataValidation>
@@ -792,7 +798,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{64CBBE0C-41CF-4EB2-B1DC-1EC3587690F6}"/>
-    <hyperlink ref="E3:E5" r:id="rId2" display="Xchange@720" xr:uid="{65EF2266-D3C2-4939-AA1A-815D7A20BD6D}"/>
+    <hyperlink ref="E3:E5" r:id="rId2" display="Xchange@720" xr:uid="{9F3B22AF-E884-4426-BE68-FACFF353B02B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -803,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FAF82A-9382-4CAC-A3C7-39C1DBDB2FE2}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,7 +846,7 @@
       <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="4" t="s">
